--- a/python/data/produk.xlsx
+++ b/python/data/produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BARAD\Project ATG\scraper_with_playwright\python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252EBC25-C8ED-467C-8931-104ADB2290E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE021E1-495E-430E-A4DE-EAC449E4C70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.tokopedia.com/globalkomunikajk/sim-card-singapore-korea-hongkong-china-thailand-malaysia-unlimited-simcard-asia-global-komunika-1730880051608455078?extParam=whid%3D18643634&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/globalkomunikajk/esim-china-big-data-global-komunika-3-hari-3gb-4b857?t_id=1748595611774&amp;t_st=1&amp;t_pp=product_detail&amp;t_efo=horizontal_goods_card&amp;t_ef=&amp;t_sm=rec_product_detail_outer_pdp_1_module&amp;t_spt=product_detail</t>
+    <t>https://gkomunika.com/id/products/esim-singapore</t>
   </si>
 </sst>
 </file>
@@ -351,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -369,11 +366,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
